--- a/simulation-result-2.xlsx
+++ b/simulation-result-2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinghongmiao/Code/mvt-code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDC77CC-A42D-2E41-ABC1-0F95D40EA438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6370171-8460-424A-A377-BD6689F35CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1060" windowWidth="25260" windowHeight="17920" xr2:uid="{DC67C3A7-B510-8046-B152-656B0754A207}"/>
+    <workbookView xWindow="2720" yWindow="3320" windowWidth="25260" windowHeight="15620" activeTab="2" xr2:uid="{DC67C3A7-B510-8046-B152-656B0754A207}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
   <si>
     <t>data</t>
   </si>
@@ -182,12 +183,51 @@
   <si>
     <t>5000+</t>
   </si>
+  <si>
+    <t>Continuous vs Random LNS</t>
+  </si>
+  <si>
+    <t>work limit</t>
+  </si>
+  <si>
+    <t>50+50*1</t>
+  </si>
+  <si>
+    <t>best bound</t>
+  </si>
+  <si>
+    <t>LNS (0.5)</t>
+  </si>
+  <si>
+    <t>gap</t>
+  </si>
+  <si>
+    <t>c201</t>
+  </si>
+  <si>
+    <t>50+50*5</t>
+  </si>
+  <si>
+    <t>r101</t>
+  </si>
+  <si>
+    <t>rc101</t>
+  </si>
+  <si>
+    <t>50+50*2</t>
+  </si>
+  <si>
+    <t>50+50*3</t>
+  </si>
+  <si>
+    <t>50+50*19</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -213,6 +253,13 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -336,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -355,6 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -690,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BF1054-2560-7449-ABE7-211CBBE65550}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="264" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="183" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -704,7 +752,7 @@
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -724,7 +772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -749,7 +797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>25</v>
       </c>
@@ -773,7 +821,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>5</v>
       </c>
@@ -787,7 +835,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D5">
         <v>7063</v>
       </c>
@@ -802,355 +850,331 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4">
-        <v>7411</v>
-      </c>
-      <c r="G8">
-        <v>1000</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>6768</v>
+      </c>
+      <c r="E7">
+        <v>6497</v>
+      </c>
+      <c r="F7">
+        <f>(D7-E7)/D7</f>
+        <v>4.0041371158392437E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>7645</v>
-      </c>
-      <c r="G9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>7878</v>
-      </c>
-      <c r="G10">
-        <v>1000</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>7512</v>
+        <v>6</v>
+      </c>
+      <c r="D11" s="4">
+        <v>7411</v>
       </c>
       <c r="G11">
         <v>1000</v>
       </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>7509</v>
+        <v>7645</v>
       </c>
       <c r="G12">
         <v>1000</v>
       </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>25</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="5">
-        <v>8338</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>7878</v>
+      </c>
+      <c r="G13">
         <v>1000</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="6"/>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>25</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>19</v>
+      <c r="C14" t="s">
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>7676</v>
+        <v>7512</v>
       </c>
       <c r="G14">
         <v>1000</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>25</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>19</v>
+      <c r="C15" t="s">
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>7536</v>
+        <v>7509</v>
       </c>
       <c r="G15">
         <v>1000</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>25</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D16">
-        <v>8126</v>
-      </c>
-      <c r="G16">
+      <c r="D16" s="5">
+        <v>8338</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
         <v>1000</v>
       </c>
-      <c r="H16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" t="s">
-        <v>42</v>
-      </c>
+      <c r="H16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>25</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="12">
-        <v>7363</v>
+      <c r="D17">
+        <v>7676</v>
       </c>
       <c r="G17">
         <v>1000</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C18" s="11"/>
-      <c r="D18" s="9">
-        <v>7473</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>7536</v>
+      </c>
+      <c r="G18">
         <v>1000</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>44</v>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D19">
-        <v>7739</v>
+        <v>8126</v>
       </c>
       <c r="G19">
         <v>1000</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>25</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D20">
-        <v>8320</v>
+      <c r="D20" s="12">
+        <v>7363</v>
       </c>
       <c r="G20">
         <v>1000</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21">
-        <v>7946</v>
-      </c>
-      <c r="G21">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C21" s="11"/>
+      <c r="D21" s="9">
+        <v>7473</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9">
         <v>1000</v>
       </c>
-      <c r="H21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" t="s">
-        <v>36</v>
+      <c r="H21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="D22" t="s">
-        <v>20</v>
+      <c r="D22">
+        <v>7739</v>
       </c>
       <c r="G22">
         <v>1000</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="I22" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
-      <c r="D23" t="s">
-        <v>20</v>
+      <c r="D23">
+        <v>8320</v>
       </c>
       <c r="G23">
         <v>1000</v>
       </c>
       <c r="H23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>25</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
       </c>
-      <c r="D24" t="s">
-        <v>20</v>
+      <c r="D24">
+        <v>7946</v>
       </c>
       <c r="G24">
         <v>1000</v>
       </c>
       <c r="H24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25">
         <v>25</v>
       </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>1000</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>25</v>
+      </c>
       <c r="C26" t="s">
         <v>19</v>
       </c>
-      <c r="D26">
-        <v>7538</v>
+      <c r="D26" t="s">
+        <v>20</v>
       </c>
       <c r="G26">
         <v>1000</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>25</v>
+      </c>
       <c r="C27" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="4">
-        <v>7363</v>
+      <c r="D27" t="s">
+        <v>20</v>
       </c>
       <c r="G27">
         <v>1000</v>
       </c>
       <c r="H27" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D28">
-        <v>7362</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
       <c r="D29">
-        <v>7432</v>
+        <v>7538</v>
       </c>
       <c r="G29">
         <v>1000</v>
@@ -1159,160 +1183,196 @@
         <v>38</v>
       </c>
       <c r="I29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="4">
+        <v>7363</v>
+      </c>
+      <c r="G30">
+        <v>1000</v>
+      </c>
+      <c r="H30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>7362</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>7432</v>
+      </c>
+      <c r="G32">
+        <v>1000</v>
+      </c>
+      <c r="H32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D31">
-        <v>7605</v>
-      </c>
-      <c r="H31" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D32">
-        <v>7894</v>
-      </c>
-      <c r="H32" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D33">
-        <v>7998</v>
-      </c>
-      <c r="H33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J33" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D34">
-        <v>8611</v>
-      </c>
-      <c r="G34">
-        <v>1000</v>
+        <v>7605</v>
       </c>
       <c r="H34" t="s">
-        <v>26</v>
+        <v>39</v>
+      </c>
+      <c r="I34" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>19</v>
-      </c>
       <c r="D35">
-        <v>8491</v>
-      </c>
-      <c r="G35">
-        <v>1000</v>
+        <v>7894</v>
       </c>
       <c r="H35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I35" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>7998</v>
+      </c>
+      <c r="H36" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>8611</v>
+      </c>
+      <c r="G37">
+        <v>1000</v>
+      </c>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38">
-        <v>25</v>
-      </c>
       <c r="C38" t="s">
         <v>19</v>
       </c>
       <c r="D38">
-        <v>8600</v>
+        <v>8491</v>
       </c>
       <c r="G38">
         <v>1000</v>
       </c>
       <c r="H38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39">
-        <v>8726</v>
-      </c>
-      <c r="G39">
-        <v>1000</v>
-      </c>
-      <c r="H39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D40">
-        <v>8670</v>
-      </c>
-      <c r="H40" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="I38" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
       <c r="D41">
-        <v>8597</v>
+        <v>8600</v>
+      </c>
+      <c r="G41">
+        <v>1000</v>
       </c>
       <c r="H41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
       <c r="D42">
-        <v>8712</v>
+        <v>8726</v>
+      </c>
+      <c r="G42">
+        <v>1000</v>
       </c>
       <c r="H42" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D43">
-        <v>8600</v>
+        <v>8670</v>
       </c>
       <c r="H43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D44">
-        <v>8657</v>
+        <v>8597</v>
       </c>
       <c r="H44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D45">
-        <v>8657</v>
+        <v>8712</v>
       </c>
       <c r="H45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D46">
+        <v>8600</v>
+      </c>
+      <c r="H46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>8657</v>
+      </c>
+      <c r="H47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>8657</v>
+      </c>
+      <c r="H48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D49">
         <v>8727</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H49" t="s">
         <v>34</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I49" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9957,4 +10017,214 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2E3463-3EDE-384F-968A-0B8469024A09}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="185" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>7533</v>
+      </c>
+      <c r="E4">
+        <v>5379</v>
+      </c>
+      <c r="F4" s="14">
+        <v>6497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>6580</v>
+      </c>
+      <c r="G5">
+        <f>(D5-F4)/D5</f>
+        <v>1.2613981762917933E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>7456</v>
+      </c>
+      <c r="E7">
+        <v>6696</v>
+      </c>
+      <c r="F7">
+        <v>6696</v>
+      </c>
+      <c r="G7">
+        <f>(D7-E7)/D7</f>
+        <v>0.10193133047210301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8">
+        <v>6823</v>
+      </c>
+      <c r="G8">
+        <f>(D8-F7)/D8</f>
+        <v>1.8613513117397038E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <v>6102</v>
+      </c>
+      <c r="E10">
+        <v>4615</v>
+      </c>
+      <c r="F10">
+        <v>4615</v>
+      </c>
+      <c r="G10">
+        <f>(D10-E10)/D10</f>
+        <v>0.24369059324811537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>4832</v>
+      </c>
+      <c r="G11">
+        <f>(D11-F10)/D11</f>
+        <v>4.4908940397350994E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13">
+        <v>7848</v>
+      </c>
+      <c r="E13">
+        <v>6058</v>
+      </c>
+      <c r="F13">
+        <v>6058</v>
+      </c>
+      <c r="G13">
+        <f>(D13-E13)/D13</f>
+        <v>0.22808358817533128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14">
+        <v>6325</v>
+      </c>
+      <c r="E14">
+        <v>5487</v>
+      </c>
+      <c r="G14">
+        <f>(D14-F13)/D14</f>
+        <v>4.2213438735177869E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <v>6300</v>
+      </c>
+      <c r="G15">
+        <f>(D15-F13)/D15</f>
+        <v>3.8412698412698412E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/simulation-result-2.xlsx
+++ b/simulation-result-2.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinghongmiao/Code/mvt-code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6370171-8460-424A-A377-BD6689F35CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF7DA09-699D-8843-BF62-82AF2C90DA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="3320" windowWidth="25260" windowHeight="15620" activeTab="2" xr2:uid="{DC67C3A7-B510-8046-B152-656B0754A207}"/>
+    <workbookView xWindow="-4940" yWindow="-20900" windowWidth="26260" windowHeight="18540" activeTab="4" xr2:uid="{DC67C3A7-B510-8046-B152-656B0754A207}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="wrong" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="greedy" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="64">
   <si>
     <t>data</t>
   </si>
@@ -222,12 +224,21 @@
   <si>
     <t>50+50*19</t>
   </si>
+  <si>
+    <t>best obj</t>
+  </si>
+  <si>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>best gap</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,8 +272,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +290,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -379,11 +402,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -403,8 +427,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -740,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BF1054-2560-7449-ABE7-211CBBE65550}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView zoomScale="183" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="B1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10023,8 +10050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2E3463-3EDE-384F-968A-0B8469024A09}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="185" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="185" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10226,5 +10253,343 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DA70D2-218E-7C45-B91F-842223E7C0E9}">
+  <dimension ref="A2:L11"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>7533</v>
+      </c>
+      <c r="E3">
+        <v>5379</v>
+      </c>
+      <c r="F3">
+        <f>(D3-E3)/D3</f>
+        <v>0.28594185583432896</v>
+      </c>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>7456</v>
+      </c>
+      <c r="E4">
+        <v>6696</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F5" si="0">(D4-E4)/D4</f>
+        <v>0.10193133047210301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>6102</v>
+      </c>
+      <c r="E5">
+        <v>4615</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.24369059324811537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I11" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E67D06-8766-C646-A479-894FDFC7D5C9}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="206" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="7">
+        <v>7533</v>
+      </c>
+      <c r="E2" s="15">
+        <v>5379</v>
+      </c>
+      <c r="F2" s="8">
+        <f>(D2-E2)/D2</f>
+        <v>0.28594185583432896</v>
+      </c>
+      <c r="G2">
+        <v>7094</v>
+      </c>
+      <c r="H2" s="14">
+        <v>6497</v>
+      </c>
+      <c r="I2">
+        <f>(G2-H2)/G2</f>
+        <v>8.4155624471384263E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="7">
+        <v>7351</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="8">
+        <f>(D3-E2)/D3</f>
+        <v>0.26826282138484558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D4" s="7"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7456</v>
+      </c>
+      <c r="E5" s="15">
+        <v>6696</v>
+      </c>
+      <c r="F5" s="8">
+        <f>(D5-E5)/D5</f>
+        <v>0.10193133047210301</v>
+      </c>
+      <c r="G5">
+        <v>7402</v>
+      </c>
+      <c r="H5">
+        <v>7192</v>
+      </c>
+      <c r="I5">
+        <f>(G5-H5)/G5</f>
+        <v>2.8370710618751689E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="16">
+        <v>7532</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="8">
+        <f>(D6-E5)/D6</f>
+        <v>0.11099309612320765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D7" s="7"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="7">
+        <v>6102</v>
+      </c>
+      <c r="E8" s="15">
+        <v>4615</v>
+      </c>
+      <c r="F8" s="8">
+        <f>(D8-E8)/D8</f>
+        <v>0.24369059324811537</v>
+      </c>
+      <c r="G8">
+        <v>5715</v>
+      </c>
+      <c r="H8">
+        <v>5183</v>
+      </c>
+      <c r="I8">
+        <f>(G8-H8)/G8</f>
+        <v>9.308836395450569E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="7">
+        <v>6092</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="8">
+        <f>(D9-E8)/D9</f>
+        <v>0.24244911359159554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D10" s="7"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="7">
+        <v>7848</v>
+      </c>
+      <c r="E11" s="15">
+        <v>6058</v>
+      </c>
+      <c r="F11" s="8">
+        <f>(D11-E11)/D11</f>
+        <v>0.22808358817533128</v>
+      </c>
+      <c r="G11">
+        <v>7546</v>
+      </c>
+      <c r="H11">
+        <v>7047</v>
+      </c>
+      <c r="I11">
+        <f>(G11-H11)/G11</f>
+        <v>6.6127749801219188E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <v>277</v>
+      </c>
+      <c r="D12" s="11">
+        <v>7678</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10">
+        <f>(D12-E11)/D12</f>
+        <v>0.21099244594946601</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/simulation-result-2.xlsx
+++ b/simulation-result-2.xlsx
@@ -8,16 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinghongmiao/Code/mvt-code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF7DA09-699D-8843-BF62-82AF2C90DA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD6B2B7-3DD4-2D4A-AEDF-922AFBB2BA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4940" yWindow="-20900" windowWidth="26260" windowHeight="18540" activeTab="4" xr2:uid="{DC67C3A7-B510-8046-B152-656B0754A207}"/>
+    <workbookView xWindow="5960" yWindow="940" windowWidth="26600" windowHeight="18360" activeTab="7" xr2:uid="{DC67C3A7-B510-8046-B152-656B0754A207}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="wrong" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="greedy" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="wrong" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="greedy" sheetId="5" r:id="rId6"/>
+    <sheet name="greedy-tw" sheetId="6" r:id="rId7"/>
+    <sheet name="greedy-tw-carc" sheetId="7" r:id="rId8"/>
+    <sheet name="present" sheetId="11" r:id="rId9"/>
+    <sheet name="greedy-tw-lagrange" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="132">
   <si>
     <t>data</t>
   </si>
@@ -233,12 +238,219 @@
   <si>
     <t>best gap</t>
   </si>
+  <si>
+    <t>48h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continuous </t>
+  </si>
+  <si>
+    <t>solved to optimal</t>
+  </si>
+  <si>
+    <t>48h (41610)</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>random1</t>
+  </si>
+  <si>
+    <t>random2</t>
+  </si>
+  <si>
+    <t>work_limit</t>
+  </si>
+  <si>
+    <t>clutered (c101)</t>
+  </si>
+  <si>
+    <t>random (r101)</t>
+  </si>
+  <si>
+    <t>larger clusters (c201)</t>
+  </si>
+  <si>
+    <t>mixed (rc101)</t>
+  </si>
+  <si>
+    <t>StronglySkewed</t>
+  </si>
+  <si>
+    <t>SomewhatSkewed</t>
+  </si>
+  <si>
+    <t>greedy-obj</t>
+  </si>
+  <si>
+    <t>full-obj</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>orig-obj</t>
+  </si>
+  <si>
+    <t>timelimit = 1000</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>greedy-reserve</t>
+  </si>
+  <si>
+    <t>Threads = 32</t>
+  </si>
+  <si>
+    <t>gap-full</t>
+  </si>
+  <si>
+    <t>gap-reserve</t>
+  </si>
+  <si>
+    <t>gap-orig-heur</t>
+  </si>
+  <si>
+    <t>greedy-orig-heur</t>
+  </si>
+  <si>
+    <t>greedy-orig-min</t>
+  </si>
+  <si>
+    <t>greedy-rsv-min</t>
+  </si>
+  <si>
+    <t>no depot</t>
+  </si>
+  <si>
+    <t>clustered (c101)</t>
+  </si>
+  <si>
+    <t>no-depot</t>
+  </si>
+  <si>
+    <t>no-depot-gap</t>
+  </si>
+  <si>
+    <t>depot_cost</t>
+  </si>
+  <si>
+    <t>48hr</t>
+  </si>
+  <si>
+    <t>x1000</t>
+  </si>
+  <si>
+    <t>x100</t>
+  </si>
+  <si>
+    <t>x50</t>
+  </si>
+  <si>
+    <t>x10 (initial infeasible)</t>
+  </si>
+  <si>
+    <t>x20 (initial infeasible)</t>
+  </si>
+  <si>
+    <t># RN</t>
+  </si>
+  <si>
+    <t># LVN</t>
+  </si>
+  <si>
+    <t># Events</t>
+  </si>
+  <si>
+    <t>Optimality Gap</t>
+  </si>
+  <si>
+    <t>Time Windows</t>
+  </si>
+  <si>
+    <t>depot_h ^2</t>
+  </si>
+  <si>
+    <t>depot_h ^3</t>
+  </si>
+  <si>
+    <t>heur</t>
+  </si>
+  <si>
+    <t>full-M</t>
+  </si>
+  <si>
+    <t>2171s</t>
+  </si>
+  <si>
+    <t>1290s</t>
+  </si>
+  <si>
+    <t>446s</t>
+  </si>
+  <si>
+    <t>1675s</t>
+  </si>
+  <si>
+    <t>1606s</t>
+  </si>
+  <si>
+    <t>2127s</t>
+  </si>
+  <si>
+    <t>3556s</t>
+  </si>
+  <si>
+    <t>Even</t>
+  </si>
+  <si>
+    <t>Random1</t>
+  </si>
+  <si>
+    <t>Random2</t>
+  </si>
+  <si>
+    <t>LNS 1000s</t>
+  </si>
+  <si>
+    <t>Feasible Solution</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Without LNS</t>
+  </si>
+  <si>
+    <t>460s</t>
+  </si>
+  <si>
+    <t>2218s</t>
+  </si>
+  <si>
+    <t>Objective Value</t>
+  </si>
+  <si>
+    <t>Bound</t>
+  </si>
+  <si>
+    <t>Gap</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,8 +491,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,8 +516,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -401,13 +625,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -427,13 +704,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -767,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BF1054-2560-7449-ABE7-211CBBE65550}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1409,12 +1703,1270 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3D65DF-FE58-4943-912D-421C3ACD79B7}">
+  <dimension ref="A1:AC24"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
+    <col min="10" max="16" width="7" customWidth="1"/>
+    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.5" customWidth="1"/>
+    <col min="21" max="22" width="13.33203125" customWidth="1"/>
+    <col min="29" max="29" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2">
+        <v>7164</v>
+      </c>
+      <c r="D2" s="22">
+        <f>C2*(1-E2)</f>
+        <v>6378</v>
+      </c>
+      <c r="E2" s="21">
+        <v>0.109715242881072</v>
+      </c>
+      <c r="L2">
+        <v>7453</v>
+      </c>
+      <c r="M2">
+        <v>7289</v>
+      </c>
+      <c r="N2">
+        <v>7450</v>
+      </c>
+      <c r="O2">
+        <v>7523</v>
+      </c>
+      <c r="P2">
+        <v>7583</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>7284</v>
+      </c>
+      <c r="R2">
+        <v>7722</v>
+      </c>
+      <c r="T2">
+        <v>7872</v>
+      </c>
+      <c r="U2">
+        <v>6228</v>
+      </c>
+      <c r="V2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="X2" s="18">
+        <v>5324</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>(Q2-X2)/Q2</f>
+        <v>0.26908292147171886</v>
+      </c>
+      <c r="Z2">
+        <f>(R2-X2)/R2</f>
+        <v>0.31054131054131057</v>
+      </c>
+      <c r="AA2" t="e">
+        <f>(#REF!-X2)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>6709</v>
+      </c>
+      <c r="D3" s="22">
+        <f>C3*(1-E3)</f>
+        <v>5980.0000000000036</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0.10866000894321</v>
+      </c>
+      <c r="L3">
+        <v>7030</v>
+      </c>
+      <c r="M3">
+        <v>7023</v>
+      </c>
+      <c r="N3">
+        <v>7022</v>
+      </c>
+      <c r="P3">
+        <v>7022</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>7017</v>
+      </c>
+      <c r="R3">
+        <v>7120</v>
+      </c>
+      <c r="U3">
+        <v>5915</v>
+      </c>
+      <c r="V3">
+        <v>1.5970000000000002E-2</v>
+      </c>
+      <c r="X3" s="18">
+        <v>4960</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>(Q3-X3)/Q3</f>
+        <v>0.29314521875445348</v>
+      </c>
+      <c r="Z3">
+        <f>(R3-X3)/R3</f>
+        <v>0.30337078651685395</v>
+      </c>
+      <c r="AA3" t="e">
+        <f>(#REF!-X3)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4">
+        <v>7135</v>
+      </c>
+      <c r="D4" s="22">
+        <f>C4*(1-E4)</f>
+        <v>6246.0000000000045</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0.124597056762438</v>
+      </c>
+      <c r="L4">
+        <v>7316</v>
+      </c>
+      <c r="N4">
+        <v>7443</v>
+      </c>
+      <c r="P4">
+        <v>7464</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="4">
+        <v>7416</v>
+      </c>
+      <c r="T4">
+        <v>7985</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y4" t="e">
+        <f>(Q4-X4)/Q4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z4" t="e">
+        <f>(R4-X4)/R4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA4" s="4" t="e">
+        <f>(#REF!-X4)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5">
+        <v>7235</v>
+      </c>
+      <c r="D5" s="22">
+        <f>C5*(1-E5)</f>
+        <v>6486.0000000000045</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0.103524533517622</v>
+      </c>
+      <c r="L5">
+        <v>7705</v>
+      </c>
+      <c r="P5">
+        <v>7442</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>7447</v>
+      </c>
+      <c r="R5">
+        <v>7474</v>
+      </c>
+      <c r="T5">
+        <v>8040</v>
+      </c>
+      <c r="X5" s="18">
+        <v>5541</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>(Q5-X5)/Q5</f>
+        <v>0.25594199006311269</v>
+      </c>
+      <c r="Z5">
+        <f>(R5-X5)/R5</f>
+        <v>0.25862991704575861</v>
+      </c>
+      <c r="AA5" t="e">
+        <f>(#REF!-X5)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <v>7154</v>
+      </c>
+      <c r="D6" s="22">
+        <f>C6*(1-E6)</f>
+        <v>6404.0000000000018</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0.10483645512999699</v>
+      </c>
+      <c r="L6">
+        <v>7490</v>
+      </c>
+      <c r="P6">
+        <v>7581</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>7472</v>
+      </c>
+      <c r="R6">
+        <v>7759</v>
+      </c>
+      <c r="T6">
+        <v>8115</v>
+      </c>
+      <c r="X6" s="18">
+        <v>5324</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>(Q6-X6)/Q6</f>
+        <v>0.28747323340471093</v>
+      </c>
+      <c r="Z6">
+        <f>(R6-X6)/R6</f>
+        <v>0.31382910168836192</v>
+      </c>
+      <c r="AA6" t="e">
+        <f>(#REF!-X6)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="E7" s="21"/>
+      <c r="X7" s="18"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8">
+        <v>7253</v>
+      </c>
+      <c r="D8" s="22">
+        <f>C8*(1-E8)</f>
+        <v>6704</v>
+      </c>
+      <c r="E8" s="21">
+        <v>7.5692816765476303E-2</v>
+      </c>
+      <c r="F8">
+        <v>7430</v>
+      </c>
+      <c r="G8">
+        <v>7365</v>
+      </c>
+      <c r="H8">
+        <v>7384</v>
+      </c>
+      <c r="I8">
+        <v>7585</v>
+      </c>
+      <c r="J8">
+        <v>7609</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>7435</v>
+      </c>
+      <c r="R8">
+        <v>7753</v>
+      </c>
+      <c r="S8">
+        <v>7782</v>
+      </c>
+      <c r="T8">
+        <v>7963</v>
+      </c>
+      <c r="U8">
+        <v>7845</v>
+      </c>
+      <c r="X8" s="18">
+        <v>5702</v>
+      </c>
+      <c r="Y8" s="4">
+        <f>(Q8-X8)/Q8</f>
+        <v>0.23308675184936112</v>
+      </c>
+      <c r="Z8">
+        <f>(R8-X8)/R8</f>
+        <v>0.26454275764220303</v>
+      </c>
+      <c r="AA8" t="e">
+        <f>(#REF!-X8)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9">
+        <v>6648</v>
+      </c>
+      <c r="D9" s="22">
+        <f>C9*(1-E9)</f>
+        <v>6341.0000000000009</v>
+      </c>
+      <c r="E9" s="21">
+        <v>4.6179302045728003E-2</v>
+      </c>
+      <c r="F9">
+        <v>7046</v>
+      </c>
+      <c r="G9">
+        <v>6983</v>
+      </c>
+      <c r="H9">
+        <v>6894</v>
+      </c>
+      <c r="I9">
+        <v>7094</v>
+      </c>
+      <c r="J9">
+        <v>6956</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>6798</v>
+      </c>
+      <c r="R9">
+        <v>6886</v>
+      </c>
+      <c r="S9">
+        <v>7560</v>
+      </c>
+      <c r="T9">
+        <v>7657</v>
+      </c>
+      <c r="U9">
+        <v>7160</v>
+      </c>
+      <c r="X9" s="18">
+        <v>5206</v>
+      </c>
+      <c r="Y9" s="4">
+        <f>(Q9-X9)/Q9</f>
+        <v>0.23418652544866136</v>
+      </c>
+      <c r="Z9">
+        <f>(R9-X9)/R9</f>
+        <v>0.24397327911704908</v>
+      </c>
+      <c r="AA9" t="e">
+        <f>(#REF!-X9)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10">
+        <v>6995</v>
+      </c>
+      <c r="D10" s="22">
+        <f>C10*(1-E10)</f>
+        <v>6507</v>
+      </c>
+      <c r="E10" s="21">
+        <v>6.97641172265904E-2</v>
+      </c>
+      <c r="Q10">
+        <v>7203</v>
+      </c>
+      <c r="R10" s="4">
+        <v>7182</v>
+      </c>
+      <c r="U10">
+        <v>7448</v>
+      </c>
+      <c r="X10" s="18">
+        <v>5389</v>
+      </c>
+      <c r="Y10">
+        <f>(Q10-X10)/Q10</f>
+        <v>0.25183951131472998</v>
+      </c>
+      <c r="Z10" s="4">
+        <f>(R10-X10)/R10</f>
+        <v>0.24965190754664437</v>
+      </c>
+      <c r="AA10" t="e">
+        <f>(#REF!-X10)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11">
+        <v>7381</v>
+      </c>
+      <c r="D11" s="22">
+        <f>C11*(1-E11)</f>
+        <v>6842.0000000000009</v>
+      </c>
+      <c r="E11" s="21">
+        <v>7.3025335320417203E-2</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>7471</v>
+      </c>
+      <c r="R11">
+        <v>7537</v>
+      </c>
+      <c r="S11">
+        <v>8124</v>
+      </c>
+      <c r="U11">
+        <v>7917</v>
+      </c>
+      <c r="X11" s="18">
+        <v>5837</v>
+      </c>
+      <c r="Y11" s="4">
+        <f>(Q11-X11)/Q11</f>
+        <v>0.218712354437157</v>
+      </c>
+      <c r="Z11">
+        <f>(R11-X11)/R11</f>
+        <v>0.22555393392596523</v>
+      </c>
+      <c r="AA11" t="e">
+        <f>(#REF!-X11)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>7321</v>
+      </c>
+      <c r="D12" s="22">
+        <f>C12*(1-E12)</f>
+        <v>6538.0000000000055</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.10695260210353701</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>8595</v>
+      </c>
+      <c r="R12">
+        <v>7718</v>
+      </c>
+      <c r="S12">
+        <v>8713</v>
+      </c>
+      <c r="U12">
+        <v>7793</v>
+      </c>
+      <c r="X12" s="18">
+        <v>5614</v>
+      </c>
+      <c r="Y12" s="4">
+        <f>(Q12-X12)/Q12</f>
+        <v>0.34682955206515415</v>
+      </c>
+      <c r="Z12">
+        <f>(R12-X12)/R12</f>
+        <v>0.27260948432236332</v>
+      </c>
+      <c r="AA12" t="e">
+        <f>(#REF!-X12)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="E13" s="21"/>
+      <c r="X13" s="18"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14">
+        <v>5744</v>
+      </c>
+      <c r="D14" s="22">
+        <f>C14*(1-E14)</f>
+        <v>5322.0000000000009</v>
+      </c>
+      <c r="E14" s="21">
+        <v>7.3467966573816101E-2</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>5826</v>
+      </c>
+      <c r="R14">
+        <v>5838</v>
+      </c>
+      <c r="S14">
+        <v>8312</v>
+      </c>
+      <c r="X14" s="18">
+        <v>4761</v>
+      </c>
+      <c r="Y14" s="4">
+        <f>(Q14-X14)/Q14</f>
+        <v>0.18280123583934088</v>
+      </c>
+      <c r="Z14">
+        <f>(R14-X14)/R14</f>
+        <v>0.18448098663926002</v>
+      </c>
+      <c r="AA14" t="e">
+        <f>(#REF!-X14)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15">
+        <v>5715</v>
+      </c>
+      <c r="D15" s="22">
+        <f>C15*(1-E15)</f>
+        <v>5185</v>
+      </c>
+      <c r="E15" s="21">
+        <v>9.2738407699037601E-2</v>
+      </c>
+      <c r="Q15">
+        <v>5996</v>
+      </c>
+      <c r="R15" s="4">
+        <v>5764</v>
+      </c>
+      <c r="X15" s="18">
+        <v>4609</v>
+      </c>
+      <c r="Y15">
+        <f>(Q15-X15)/Q15</f>
+        <v>0.23132088058705805</v>
+      </c>
+      <c r="Z15" s="4">
+        <f>(R15-X15)/R15</f>
+        <v>0.20038167938931298</v>
+      </c>
+      <c r="AA15" t="e">
+        <f>(#REF!-X15)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16">
+        <v>5725</v>
+      </c>
+      <c r="D16" s="22">
+        <f>C16*(1-E16)</f>
+        <v>5265</v>
+      </c>
+      <c r="E16" s="21">
+        <v>8.0349344978165899E-2</v>
+      </c>
+      <c r="Q16">
+        <v>5818</v>
+      </c>
+      <c r="R16" s="4">
+        <v>5807</v>
+      </c>
+      <c r="X16" s="18">
+        <v>4643</v>
+      </c>
+      <c r="Y16">
+        <f>(Q16-X16)/Q16</f>
+        <v>0.20195943623238227</v>
+      </c>
+      <c r="Z16" s="4">
+        <f>(R16-X16)/R16</f>
+        <v>0.20044773549164802</v>
+      </c>
+      <c r="AA16" t="e">
+        <f>(#REF!-X16)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17">
+        <v>5721</v>
+      </c>
+      <c r="D17" s="22">
+        <f>C17*(1-E17)</f>
+        <v>5249</v>
+      </c>
+      <c r="E17" s="21">
+        <v>8.2503058905785701E-2</v>
+      </c>
+      <c r="Q17">
+        <v>5813</v>
+      </c>
+      <c r="R17" s="4">
+        <v>5795</v>
+      </c>
+      <c r="X17" s="18">
+        <v>4733</v>
+      </c>
+      <c r="Y17">
+        <f>(Q17-X17)/Q17</f>
+        <v>0.18579046963702048</v>
+      </c>
+      <c r="Z17" s="4">
+        <f>(R17-X17)/R17</f>
+        <v>0.18326143226919758</v>
+      </c>
+      <c r="AA17" t="e">
+        <f>(#REF!-X17)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18">
+        <v>5593</v>
+      </c>
+      <c r="D18" s="22">
+        <f>C18*(1-E18)</f>
+        <v>5114</v>
+      </c>
+      <c r="E18" s="21">
+        <v>8.5642767745396003E-2</v>
+      </c>
+      <c r="Q18">
+        <v>5671</v>
+      </c>
+      <c r="R18" s="4">
+        <v>5653</v>
+      </c>
+      <c r="X18" s="18">
+        <v>4533</v>
+      </c>
+      <c r="Y18">
+        <f>(Q18-X18)/Q18</f>
+        <v>0.2006700758243696</v>
+      </c>
+      <c r="Z18" s="4">
+        <f>(R18-X18)/R18</f>
+        <v>0.19812488943923581</v>
+      </c>
+      <c r="AA18" t="e">
+        <f>(#REF!-X18)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="E19" s="21"/>
+      <c r="X19" s="18"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20">
+        <v>7681</v>
+      </c>
+      <c r="D20" s="22">
+        <f>C20*(1-E20)</f>
+        <v>7262</v>
+      </c>
+      <c r="E20" s="21">
+        <v>5.4550188777502902E-2</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>7742</v>
+      </c>
+      <c r="R20">
+        <v>7786</v>
+      </c>
+      <c r="S20">
+        <v>8312</v>
+      </c>
+      <c r="X20" s="18">
+        <v>6395</v>
+      </c>
+      <c r="Y20" s="4">
+        <f>(Q20-X20)/Q20</f>
+        <v>0.17398605011624904</v>
+      </c>
+      <c r="Z20">
+        <f>(R20-X20)/R20</f>
+        <v>0.17865399434883122</v>
+      </c>
+      <c r="AA20" t="e">
+        <f>(#REF!-X20)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21">
+        <v>7145</v>
+      </c>
+      <c r="D21" s="22">
+        <f>C21*(1-E21)</f>
+        <v>6725.0000000000009</v>
+      </c>
+      <c r="E21" s="21">
+        <v>5.8782365290412801E-2</v>
+      </c>
+      <c r="Q21">
+        <v>7202</v>
+      </c>
+      <c r="R21" s="4">
+        <v>7197</v>
+      </c>
+      <c r="S21">
+        <v>7680</v>
+      </c>
+      <c r="X21" s="18">
+        <v>5696</v>
+      </c>
+      <c r="Y21">
+        <f>(Q21-X21)/Q21</f>
+        <v>0.20910858094973619</v>
+      </c>
+      <c r="Z21" s="4">
+        <f>(R21-X21)/R21</f>
+        <v>0.20855912185632902</v>
+      </c>
+      <c r="AA21" t="e">
+        <f>(#REF!-X21)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22">
+        <v>7409</v>
+      </c>
+      <c r="D22" s="22">
+        <f>C22*(1-E22)</f>
+        <v>6960.0000000000009</v>
+      </c>
+      <c r="E22" s="21">
+        <v>6.0601970576325999E-2</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>7430</v>
+      </c>
+      <c r="R22">
+        <v>7466</v>
+      </c>
+      <c r="S22">
+        <v>7811</v>
+      </c>
+      <c r="X22" s="18">
+        <v>6294</v>
+      </c>
+      <c r="Y22" s="4">
+        <f>(Q22-X22)/Q22</f>
+        <v>0.15289367429340511</v>
+      </c>
+      <c r="Z22">
+        <f>(R22-X22)/R22</f>
+        <v>0.15697830163407447</v>
+      </c>
+      <c r="AA22" t="e">
+        <f>(#REF!-X22)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23">
+        <v>7736</v>
+      </c>
+      <c r="D23" s="22">
+        <f>C23*(1-E23)</f>
+        <v>7217</v>
+      </c>
+      <c r="E23" s="21">
+        <v>6.7088934850051699E-2</v>
+      </c>
+      <c r="Q23">
+        <v>7840</v>
+      </c>
+      <c r="R23" s="4">
+        <v>7806</v>
+      </c>
+      <c r="S23">
+        <v>8327</v>
+      </c>
+      <c r="X23" s="18">
+        <v>6349</v>
+      </c>
+      <c r="Y23">
+        <f>(Q23-X23)/Q23</f>
+        <v>0.19017857142857142</v>
+      </c>
+      <c r="Z23" s="4">
+        <f>(R23-X23)/R23</f>
+        <v>0.18665129387650525</v>
+      </c>
+      <c r="AA23" t="e">
+        <f>(#REF!-X23)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24">
+        <v>7482</v>
+      </c>
+      <c r="D24" s="22">
+        <f>C24*(1-E24)</f>
+        <v>6993</v>
+      </c>
+      <c r="E24" s="21">
+        <v>6.5356856455493106E-2</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>7525</v>
+      </c>
+      <c r="R24">
+        <v>7654</v>
+      </c>
+      <c r="S24">
+        <v>8042</v>
+      </c>
+      <c r="X24" s="19">
+        <v>6020</v>
+      </c>
+      <c r="Y24" s="4">
+        <f>(Q24-X24)/Q24</f>
+        <v>0.2</v>
+      </c>
+      <c r="Z24">
+        <f>(R24-X24)/R24</f>
+        <v>0.21348314606741572</v>
+      </c>
+      <c r="AA24" t="e">
+        <f>(#REF!-X24)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E88C219-9099-8244-95DF-B199D4919996}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="24">
+        <v>5</v>
+      </c>
+      <c r="B2" s="24">
+        <v>7</v>
+      </c>
+      <c r="C2" s="24">
+        <v>12</v>
+      </c>
+      <c r="D2" s="23">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="23">
+        <v>2</v>
+      </c>
+      <c r="E3" s="21">
+        <v>4.1021671826625299E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="23">
+        <v>3</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0.157979149959903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="24">
+        <v>10</v>
+      </c>
+      <c r="B5" s="24">
+        <v>14</v>
+      </c>
+      <c r="C5" s="24">
+        <v>24</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0.132435180477885</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="23">
+        <v>2</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0.32956152758132901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="23">
+        <v>3</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0.44712673838887401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="24">
+        <v>15</v>
+      </c>
+      <c r="B8" s="24">
+        <v>21</v>
+      </c>
+      <c r="C8" s="24">
+        <v>36</v>
+      </c>
+      <c r="D8" s="23">
+        <v>1</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0.22319517415839599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23">
+        <v>3</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="24">
+        <v>20</v>
+      </c>
+      <c r="B11" s="24">
+        <v>28</v>
+      </c>
+      <c r="C11" s="24">
+        <v>48</v>
+      </c>
+      <c r="D11" s="23">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23">
+        <v>3</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.46966051857792002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="24">
+        <v>25</v>
+      </c>
+      <c r="B14" s="24">
+        <v>35</v>
+      </c>
+      <c r="C14" s="24">
+        <v>60</v>
+      </c>
+      <c r="D14" s="23">
+        <v>1</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0.311120498468687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="23">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="23">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4E982C-7790-D64A-ABAA-2C9135EE57E9}">
   <dimension ref="A1:BF51"/>
   <sheetViews>
     <sheetView zoomScale="123" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10046,7 +11598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2E3463-3EDE-384F-968A-0B8469024A09}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -10257,7 +11809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DA70D2-218E-7C45-B91F-842223E7C0E9}">
   <dimension ref="A2:L11"/>
   <sheetViews>
@@ -10356,17 +11908,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E67D06-8766-C646-A479-894FDFC7D5C9}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="206" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="181" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10376,13 +11928,13 @@
       <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
         <v>53</v>
       </c>
       <c r="G1" t="s">
@@ -10394,8 +11946,17 @@
       <c r="I1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10405,191 +11966,2066 @@
       <c r="C2">
         <v>1000</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2">
         <v>7533</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2">
         <v>5379</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2">
         <f>(D2-E2)/D2</f>
         <v>0.28594185583432896</v>
       </c>
-      <c r="G2">
+      <c r="J2">
+        <v>6392</v>
+      </c>
+      <c r="K2">
+        <v>2.5500625782227698E-2</v>
+      </c>
+      <c r="L2">
+        <v>541</v>
+      </c>
+      <c r="M2">
+        <f>J2+L2+L3</f>
+        <v>7454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3">
         <v>7094</v>
       </c>
-      <c r="H2" s="14">
-        <v>6497</v>
-      </c>
-      <c r="I2">
-        <f>(G2-H2)/G2</f>
-        <v>8.4155624471384263E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="E3">
+        <v>6526</v>
+      </c>
+      <c r="F3">
+        <f>(D3-E3)/D3</f>
+        <v>8.0067662813645329E-2</v>
+      </c>
+      <c r="L3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="7">
-        <v>7351</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="8">
-        <f>(D3-E2)/D3</f>
-        <v>0.26826282138484558</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D4" s="7"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="15">
+        <f>SUM(1891+1422+1871+1285+948)</f>
+        <v>7417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>1000</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5">
+        <v>7351</v>
+      </c>
+      <c r="F5" s="16">
+        <f>(D5-E2)/D5</f>
+        <v>0.26826282138484558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
         <v>7456</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E7">
         <v>6696</v>
       </c>
-      <c r="F5" s="8">
-        <f>(D5-E5)/D5</f>
+      <c r="F7">
+        <f>(D7-E7)/D7</f>
         <v>0.10193133047210301</v>
       </c>
-      <c r="G5">
+      <c r="J7">
+        <v>6732</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>647</v>
+      </c>
+      <c r="M7">
+        <f>J7+L7+L8</f>
+        <v>8051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8">
         <v>7402</v>
       </c>
-      <c r="H5">
-        <v>7192</v>
-      </c>
-      <c r="I5">
-        <f>(G5-H5)/G5</f>
-        <v>2.8370710618751689E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="16">
-        <v>7532</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="8">
-        <f>(D6-E5)/D6</f>
-        <v>0.11099309612320765</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D7" s="7"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="7">
-        <v>6102</v>
-      </c>
-      <c r="E8" s="15">
-        <v>4615</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="E8">
+        <v>7210</v>
+      </c>
+      <c r="F8">
         <f>(D8-E8)/D8</f>
-        <v>0.24369059324811537</v>
-      </c>
-      <c r="G8">
-        <v>5715</v>
-      </c>
-      <c r="H8">
-        <v>5183</v>
-      </c>
-      <c r="I8">
-        <f>(G8-H8)/G8</f>
-        <v>9.308836395450569E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.5938935422858685E-2</v>
+      </c>
+      <c r="L8">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="7">
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="15">
+        <f>SUM(3002,1482,1025,1194,852)</f>
+        <v>7555</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="15">
+        <v>7532</v>
+      </c>
+      <c r="F10">
+        <f>(D10-E7)/D10</f>
+        <v>0.11099309612320765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12">
+        <v>6102</v>
+      </c>
+      <c r="E12">
+        <v>4615</v>
+      </c>
+      <c r="F12">
+        <f>(D12-E12)/D12</f>
+        <v>0.24369059324811537</v>
+      </c>
+      <c r="J12">
+        <v>4540</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>892</v>
+      </c>
+      <c r="M12">
+        <f>J12+L12+L13</f>
+        <v>6327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13">
+        <v>5709</v>
+      </c>
+      <c r="E13">
+        <v>5195</v>
+      </c>
+      <c r="F13">
+        <f>(D13-E13)/D13</f>
+        <v>9.0033280784725875E-2</v>
+      </c>
+      <c r="L13">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="16">
+        <f>SUM(1708,1600,1099,1465,257)</f>
+        <v>6129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15">
         <v>6092</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="8">
-        <f>(D9-E8)/D9</f>
+      <c r="F15">
+        <f>(D15-E12)/D15</f>
         <v>0.24244911359159554</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D10" s="7"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>57</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C17">
         <v>1000</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D17">
         <v>7848</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E17">
         <v>6058</v>
       </c>
-      <c r="F11" s="8">
-        <f>(D11-E11)/D11</f>
+      <c r="F17">
+        <f>(D17-E17)/D17</f>
         <v>0.22808358817533128</v>
       </c>
-      <c r="G11">
-        <v>7546</v>
-      </c>
-      <c r="H11">
-        <v>7047</v>
-      </c>
-      <c r="I11">
-        <f>(G11-H11)/G11</f>
-        <v>6.6127749801219188E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="J17">
+        <v>6261</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1042</v>
+      </c>
+      <c r="M17">
+        <f>J17+L17+L18</f>
+        <v>8360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18">
+        <v>7544</v>
+      </c>
+      <c r="E18">
+        <v>7068</v>
+      </c>
+      <c r="F18">
+        <f>(D18-E18)/D18</f>
+        <v>6.3096500530222699E-2</v>
+      </c>
+      <c r="L18">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>62</v>
       </c>
-      <c r="C12">
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19">
+        <f>SUM(2005,1490,1828,1681,640)</f>
+        <v>7644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20">
         <v>277</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D20">
         <v>7678</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <f>(D12-E11)/D12</f>
+      <c r="F20">
+        <f>(D20-E17)/D20</f>
         <v>0.21099244594946601</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AE4293-1005-2643-854D-1C6A9EE963F3}">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView zoomScale="172" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2">
+        <v>7606</v>
+      </c>
+      <c r="E2">
+        <v>7355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>7539</v>
+      </c>
+      <c r="E3">
+        <v>6995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4">
+        <v>7325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5">
+        <v>7410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <v>7698</v>
+      </c>
+      <c r="D6">
+        <v>7594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8">
+        <v>7574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9">
+        <v>7219</v>
+      </c>
+      <c r="E9">
+        <v>6971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10">
+        <v>7176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11">
+        <v>7546</v>
+      </c>
+      <c r="E11">
+        <v>7530</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>7575</v>
+      </c>
+      <c r="E12">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14">
+        <v>5838</v>
+      </c>
+      <c r="E14">
+        <v>5945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37482446-E7B3-724E-869A-EA139FEED607}">
+  <dimension ref="A1:T24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.33203125" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2">
+        <v>7164</v>
+      </c>
+      <c r="D2" s="22">
+        <f>C2*(1-E2)</f>
+        <v>6378</v>
+      </c>
+      <c r="E2" s="21">
+        <v>0.109715242881072</v>
+      </c>
+      <c r="G2" s="4">
+        <v>7284</v>
+      </c>
+      <c r="H2">
+        <v>7722</v>
+      </c>
+      <c r="I2">
+        <v>7704</v>
+      </c>
+      <c r="J2">
+        <v>7722</v>
+      </c>
+      <c r="K2">
+        <v>7704</v>
+      </c>
+      <c r="L2">
+        <v>6228</v>
+      </c>
+      <c r="M2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O2" s="18">
+        <v>5324</v>
+      </c>
+      <c r="P2" s="4">
+        <f>(G2-O2)/G2</f>
+        <v>0.26908292147171886</v>
+      </c>
+      <c r="Q2">
+        <f>(H2-O2)/H2</f>
+        <v>0.31054131054131057</v>
+      </c>
+      <c r="R2">
+        <f>(I2-O2)/I2</f>
+        <v>0.30893042575285568</v>
+      </c>
+      <c r="T2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>6709</v>
+      </c>
+      <c r="D3" s="22">
+        <f>C3*(1-E3)</f>
+        <v>5980.0000000000036</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0.10866000894321</v>
+      </c>
+      <c r="G3" s="4">
+        <v>7017</v>
+      </c>
+      <c r="H3">
+        <v>7120</v>
+      </c>
+      <c r="I3">
+        <v>7582</v>
+      </c>
+      <c r="J3">
+        <v>7266</v>
+      </c>
+      <c r="K3">
+        <v>7182</v>
+      </c>
+      <c r="L3">
+        <v>5915</v>
+      </c>
+      <c r="M3">
+        <v>1.5970000000000002E-2</v>
+      </c>
+      <c r="O3" s="18">
+        <v>4960</v>
+      </c>
+      <c r="P3" s="4">
+        <f>(G3-O3)/G3</f>
+        <v>0.29314521875445348</v>
+      </c>
+      <c r="Q3">
+        <f>(H3-O3)/H3</f>
+        <v>0.30337078651685395</v>
+      </c>
+      <c r="R3">
+        <f>(I3-O3)/I3</f>
+        <v>0.34581904510683198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4">
+        <v>7135</v>
+      </c>
+      <c r="D4" s="22">
+        <f>C4*(1-E4)</f>
+        <v>6246.0000000000045</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0.124597056762438</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>7416</v>
+      </c>
+      <c r="I4">
+        <v>7413</v>
+      </c>
+      <c r="J4" s="4">
+        <v>7368</v>
+      </c>
+      <c r="K4">
+        <v>7410</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" t="e">
+        <f>(G4-O4)/G4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q4" t="e">
+        <f>(H4-O4)/H4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R4" s="4" t="e">
+        <f>(I4-O4)/I4</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5">
+        <v>7235</v>
+      </c>
+      <c r="D5" s="22">
+        <f>C5*(1-E5)</f>
+        <v>6486.0000000000045</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0.103524533517622</v>
+      </c>
+      <c r="G5" s="4">
+        <v>7447</v>
+      </c>
+      <c r="H5">
+        <v>7474</v>
+      </c>
+      <c r="I5">
+        <v>7458</v>
+      </c>
+      <c r="J5">
+        <v>7682</v>
+      </c>
+      <c r="K5">
+        <v>7526</v>
+      </c>
+      <c r="O5" s="18">
+        <v>5541</v>
+      </c>
+      <c r="P5" s="4">
+        <f>(G5-O5)/G5</f>
+        <v>0.25594199006311269</v>
+      </c>
+      <c r="Q5">
+        <f>(H5-O5)/H5</f>
+        <v>0.25862991704575861</v>
+      </c>
+      <c r="R5">
+        <f>(I5-O5)/I5</f>
+        <v>0.25703942075623493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6">
+        <v>7154</v>
+      </c>
+      <c r="D6" s="22">
+        <f>C6*(1-E6)</f>
+        <v>6404.0000000000018</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0.10483645512999699</v>
+      </c>
+      <c r="G6" s="4">
+        <v>7472</v>
+      </c>
+      <c r="H6">
+        <v>7759</v>
+      </c>
+      <c r="I6">
+        <v>7785</v>
+      </c>
+      <c r="J6">
+        <v>7556</v>
+      </c>
+      <c r="K6">
+        <v>7611</v>
+      </c>
+      <c r="O6" s="18">
+        <v>5324</v>
+      </c>
+      <c r="P6" s="4">
+        <f>(G6-O6)/G6</f>
+        <v>0.28747323340471093</v>
+      </c>
+      <c r="Q6">
+        <f>(H6-O6)/H6</f>
+        <v>0.31382910168836192</v>
+      </c>
+      <c r="R6">
+        <f>(I6-O6)/I6</f>
+        <v>0.31612074502247911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E7" s="21"/>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8">
+        <v>7253</v>
+      </c>
+      <c r="D8" s="22">
+        <f>C8*(1-E8)</f>
+        <v>6704</v>
+      </c>
+      <c r="E8" s="21">
+        <v>7.5692816765476303E-2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>7310</v>
+      </c>
+      <c r="H8">
+        <v>7753</v>
+      </c>
+      <c r="I8">
+        <v>7496</v>
+      </c>
+      <c r="J8">
+        <v>7753</v>
+      </c>
+      <c r="K8">
+        <v>7496</v>
+      </c>
+      <c r="O8" s="18">
+        <v>5702</v>
+      </c>
+      <c r="P8" s="4">
+        <f>(G8-O8)/G8</f>
+        <v>0.21997264021887825</v>
+      </c>
+      <c r="Q8">
+        <f>(H8-O8)/H8</f>
+        <v>0.26454275764220303</v>
+      </c>
+      <c r="R8">
+        <f>(I8-O8)/I8</f>
+        <v>0.23932764140875135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9">
+        <v>6648</v>
+      </c>
+      <c r="D9" s="22">
+        <f>C9*(1-E9)</f>
+        <v>6341.0000000000009</v>
+      </c>
+      <c r="E9" s="21">
+        <v>4.6179302045728003E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>6731</v>
+      </c>
+      <c r="H9">
+        <v>6886</v>
+      </c>
+      <c r="I9">
+        <v>7237</v>
+      </c>
+      <c r="J9">
+        <v>6904</v>
+      </c>
+      <c r="K9">
+        <v>6974</v>
+      </c>
+      <c r="O9" s="18">
+        <v>5206</v>
+      </c>
+      <c r="P9" s="4">
+        <f>(G9-O9)/G9</f>
+        <v>0.22656366067449116</v>
+      </c>
+      <c r="Q9">
+        <f>(H9-O9)/H9</f>
+        <v>0.24397327911704908</v>
+      </c>
+      <c r="R9">
+        <f>(I9-O9)/I9</f>
+        <v>0.28064114964764403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10">
+        <v>6995</v>
+      </c>
+      <c r="D10" s="22">
+        <f>C10*(1-E10)</f>
+        <v>6507</v>
+      </c>
+      <c r="E10" s="21">
+        <v>6.97641172265904E-2</v>
+      </c>
+      <c r="G10">
+        <v>7203</v>
+      </c>
+      <c r="H10" s="4">
+        <v>7182</v>
+      </c>
+      <c r="I10">
+        <v>7210</v>
+      </c>
+      <c r="J10">
+        <v>7250</v>
+      </c>
+      <c r="K10">
+        <v>7290</v>
+      </c>
+      <c r="O10" s="18">
+        <v>5389</v>
+      </c>
+      <c r="P10">
+        <f>(G10-O10)/G10</f>
+        <v>0.25183951131472998</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>(H10-O10)/H10</f>
+        <v>0.24965190754664437</v>
+      </c>
+      <c r="R10">
+        <f>(I10-O10)/I10</f>
+        <v>0.25256588072122055</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11">
+        <v>7381</v>
+      </c>
+      <c r="D11" s="22">
+        <f>C11*(1-E11)</f>
+        <v>6842.0000000000009</v>
+      </c>
+      <c r="E11" s="21">
+        <v>7.3025335320417203E-2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>7451</v>
+      </c>
+      <c r="H11">
+        <v>7537</v>
+      </c>
+      <c r="I11">
+        <v>7532</v>
+      </c>
+      <c r="J11">
+        <v>7681</v>
+      </c>
+      <c r="K11">
+        <v>7820</v>
+      </c>
+      <c r="O11" s="18">
+        <v>5837</v>
+      </c>
+      <c r="P11" s="4">
+        <f>(G11-O11)/G11</f>
+        <v>0.21661521943363307</v>
+      </c>
+      <c r="Q11">
+        <f>(H11-O11)/H11</f>
+        <v>0.22555393392596523</v>
+      </c>
+      <c r="R11">
+        <f>(I11-O11)/I11</f>
+        <v>0.22503983005841741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12">
+        <v>7321</v>
+      </c>
+      <c r="D12" s="22">
+        <f>C12*(1-E12)</f>
+        <v>6538.0000000000055</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.10695260210353701</v>
+      </c>
+      <c r="G12" s="4">
+        <v>7509</v>
+      </c>
+      <c r="H12">
+        <v>7718</v>
+      </c>
+      <c r="I12">
+        <v>7638</v>
+      </c>
+      <c r="J12">
+        <v>7577</v>
+      </c>
+      <c r="K12">
+        <v>7612</v>
+      </c>
+      <c r="O12" s="18">
+        <v>5614</v>
+      </c>
+      <c r="P12" s="4">
+        <f>(G12-O12)/G12</f>
+        <v>0.252363830070582</v>
+      </c>
+      <c r="Q12">
+        <f>(H12-O12)/H12</f>
+        <v>0.27260948432236332</v>
+      </c>
+      <c r="R12">
+        <f>(I12-O12)/I12</f>
+        <v>0.26499083529719825</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E13" s="21"/>
+      <c r="O13" s="18"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14">
+        <v>5744</v>
+      </c>
+      <c r="D14" s="22">
+        <f>C14*(1-E14)</f>
+        <v>5322.0000000000009</v>
+      </c>
+      <c r="E14" s="21">
+        <v>7.3467966573816101E-2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5826</v>
+      </c>
+      <c r="H14">
+        <v>5838</v>
+      </c>
+      <c r="I14">
+        <v>5851</v>
+      </c>
+      <c r="J14">
+        <v>5838</v>
+      </c>
+      <c r="K14">
+        <v>5851</v>
+      </c>
+      <c r="O14" s="18">
+        <v>4761</v>
+      </c>
+      <c r="P14" s="4">
+        <f>(G14-O14)/G14</f>
+        <v>0.18280123583934088</v>
+      </c>
+      <c r="Q14">
+        <f>(H14-O14)/H14</f>
+        <v>0.18448098663926002</v>
+      </c>
+      <c r="R14">
+        <f>(I14-O14)/I14</f>
+        <v>0.18629294137754229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15">
+        <v>5715</v>
+      </c>
+      <c r="D15" s="22">
+        <f>C15*(1-E15)</f>
+        <v>5185</v>
+      </c>
+      <c r="E15" s="21">
+        <v>9.2738407699037601E-2</v>
+      </c>
+      <c r="G15">
+        <v>5996</v>
+      </c>
+      <c r="H15" s="4">
+        <v>5764</v>
+      </c>
+      <c r="I15">
+        <v>6042</v>
+      </c>
+      <c r="J15">
+        <v>5868</v>
+      </c>
+      <c r="K15">
+        <v>5911</v>
+      </c>
+      <c r="O15" s="18">
+        <v>4609</v>
+      </c>
+      <c r="P15">
+        <f>(G15-O15)/G15</f>
+        <v>0.23132088058705805</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>(H15-O15)/H15</f>
+        <v>0.20038167938931298</v>
+      </c>
+      <c r="R15">
+        <f>(I15-O15)/I15</f>
+        <v>0.23717312148295266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16">
+        <v>5725</v>
+      </c>
+      <c r="D16" s="22">
+        <f>C16*(1-E16)</f>
+        <v>5265</v>
+      </c>
+      <c r="E16" s="21">
+        <v>8.0349344978165899E-2</v>
+      </c>
+      <c r="G16">
+        <v>5818</v>
+      </c>
+      <c r="H16" s="4">
+        <v>5807</v>
+      </c>
+      <c r="I16">
+        <v>5856</v>
+      </c>
+      <c r="J16">
+        <v>5902</v>
+      </c>
+      <c r="K16">
+        <v>5879</v>
+      </c>
+      <c r="O16" s="18">
+        <v>4643</v>
+      </c>
+      <c r="P16">
+        <f>(G16-O16)/G16</f>
+        <v>0.20195943623238227</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>(H16-O16)/H16</f>
+        <v>0.20044773549164802</v>
+      </c>
+      <c r="R16">
+        <f>(I16-O16)/I16</f>
+        <v>0.20713797814207649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17">
+        <v>5721</v>
+      </c>
+      <c r="D17" s="22">
+        <f>C17*(1-E17)</f>
+        <v>5249</v>
+      </c>
+      <c r="E17" s="21">
+        <v>8.2503058905785701E-2</v>
+      </c>
+      <c r="G17">
+        <v>5813</v>
+      </c>
+      <c r="H17" s="4">
+        <v>5795</v>
+      </c>
+      <c r="I17">
+        <v>5816</v>
+      </c>
+      <c r="J17">
+        <v>5858</v>
+      </c>
+      <c r="K17">
+        <v>5810</v>
+      </c>
+      <c r="O17" s="18">
+        <v>4733</v>
+      </c>
+      <c r="P17">
+        <f>(G17-O17)/G17</f>
+        <v>0.18579046963702048</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>(H17-O17)/H17</f>
+        <v>0.18326143226919758</v>
+      </c>
+      <c r="R17">
+        <f>(I17-O17)/I17</f>
+        <v>0.18621045392022009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18">
+        <v>5593</v>
+      </c>
+      <c r="D18" s="22">
+        <f>C18*(1-E18)</f>
+        <v>5114</v>
+      </c>
+      <c r="E18" s="21">
+        <v>8.5642767745396003E-2</v>
+      </c>
+      <c r="G18">
+        <v>5671</v>
+      </c>
+      <c r="H18" s="4">
+        <v>5653</v>
+      </c>
+      <c r="I18">
+        <v>5654</v>
+      </c>
+      <c r="J18">
+        <v>5751</v>
+      </c>
+      <c r="K18">
+        <v>5757</v>
+      </c>
+      <c r="O18" s="18">
+        <v>4533</v>
+      </c>
+      <c r="P18">
+        <f>(G18-O18)/G18</f>
+        <v>0.2006700758243696</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>(H18-O18)/H18</f>
+        <v>0.19812488943923581</v>
+      </c>
+      <c r="R18">
+        <f>(I18-O18)/I18</f>
+        <v>0.19826671383091615</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E19" s="21"/>
+      <c r="O19" s="18"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20">
+        <v>7681</v>
+      </c>
+      <c r="D20" s="22">
+        <f>C20*(1-E20)</f>
+        <v>7262</v>
+      </c>
+      <c r="E20" s="21">
+        <v>5.4550188777502902E-2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>7742</v>
+      </c>
+      <c r="H20">
+        <v>7786</v>
+      </c>
+      <c r="I20">
+        <v>7832</v>
+      </c>
+      <c r="J20">
+        <v>7786</v>
+      </c>
+      <c r="K20">
+        <v>7832</v>
+      </c>
+      <c r="O20" s="18">
+        <v>6395</v>
+      </c>
+      <c r="P20" s="4">
+        <f>(G20-O20)/G20</f>
+        <v>0.17398605011624904</v>
+      </c>
+      <c r="Q20">
+        <f>(H20-O20)/H20</f>
+        <v>0.17865399434883122</v>
+      </c>
+      <c r="R20">
+        <f>(I20-O20)/I20</f>
+        <v>0.18347803881511746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21">
+        <v>7145</v>
+      </c>
+      <c r="D21" s="22">
+        <f>C21*(1-E21)</f>
+        <v>6725.0000000000009</v>
+      </c>
+      <c r="E21" s="21">
+        <v>5.8782365290412801E-2</v>
+      </c>
+      <c r="G21">
+        <v>7202</v>
+      </c>
+      <c r="H21" s="4">
+        <v>7197</v>
+      </c>
+      <c r="I21">
+        <v>7426</v>
+      </c>
+      <c r="J21">
+        <v>7259</v>
+      </c>
+      <c r="K21">
+        <v>7222</v>
+      </c>
+      <c r="O21" s="18">
+        <v>5696</v>
+      </c>
+      <c r="P21">
+        <f>(G21-O21)/G21</f>
+        <v>0.20910858094973619</v>
+      </c>
+      <c r="Q21" s="4">
+        <f>(H21-O21)/H21</f>
+        <v>0.20855912185632902</v>
+      </c>
+      <c r="R21">
+        <f>(I21-O21)/I21</f>
+        <v>0.23296525720441691</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22">
+        <v>7409</v>
+      </c>
+      <c r="D22" s="22">
+        <f>C22*(1-E22)</f>
+        <v>6960.0000000000009</v>
+      </c>
+      <c r="E22" s="21">
+        <v>6.0601970576325999E-2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>7430</v>
+      </c>
+      <c r="H22">
+        <v>7466</v>
+      </c>
+      <c r="I22">
+        <v>7537</v>
+      </c>
+      <c r="J22">
+        <v>7498</v>
+      </c>
+      <c r="K22">
+        <v>7470</v>
+      </c>
+      <c r="O22" s="18">
+        <v>6294</v>
+      </c>
+      <c r="P22" s="4">
+        <f>(G22-O22)/G22</f>
+        <v>0.15289367429340511</v>
+      </c>
+      <c r="Q22">
+        <f>(H22-O22)/H22</f>
+        <v>0.15697830163407447</v>
+      </c>
+      <c r="R22">
+        <f>(I22-O22)/I22</f>
+        <v>0.16491972933527929</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23">
+        <v>7736</v>
+      </c>
+      <c r="D23" s="22">
+        <f>C23*(1-E23)</f>
+        <v>7217</v>
+      </c>
+      <c r="E23" s="21">
+        <v>6.7088934850051699E-2</v>
+      </c>
+      <c r="G23">
+        <v>7840</v>
+      </c>
+      <c r="H23" s="4">
+        <v>7806</v>
+      </c>
+      <c r="I23">
+        <v>7799</v>
+      </c>
+      <c r="J23">
+        <v>7943</v>
+      </c>
+      <c r="K23">
+        <v>7834</v>
+      </c>
+      <c r="O23" s="18">
+        <v>6349</v>
+      </c>
+      <c r="P23">
+        <f>(G23-O23)/G23</f>
+        <v>0.19017857142857142</v>
+      </c>
+      <c r="Q23" s="4">
+        <f>(H23-O23)/H23</f>
+        <v>0.18665129387650525</v>
+      </c>
+      <c r="R23">
+        <f>(I23-O23)/I23</f>
+        <v>0.18592127195794333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24">
+        <v>7482</v>
+      </c>
+      <c r="D24" s="22">
+        <f>C24*(1-E24)</f>
+        <v>6993</v>
+      </c>
+      <c r="E24" s="21">
+        <v>6.5356856455493106E-2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>7525</v>
+      </c>
+      <c r="H24">
+        <v>7654</v>
+      </c>
+      <c r="I24">
+        <v>7583</v>
+      </c>
+      <c r="J24">
+        <v>7566</v>
+      </c>
+      <c r="K24">
+        <v>7573</v>
+      </c>
+      <c r="O24" s="19">
+        <v>6020</v>
+      </c>
+      <c r="P24" s="4">
+        <f>(G24-O24)/G24</f>
+        <v>0.2</v>
+      </c>
+      <c r="Q24">
+        <f>(H24-O24)/H24</f>
+        <v>0.21348314606741572</v>
+      </c>
+      <c r="R24">
+        <f>(I24-O24)/I24</f>
+        <v>0.20611895028352895</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FCEF69-0377-6844-B158-DF2A4A19A8DA}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView zoomScale="156" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="G2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3">
+        <v>7284</v>
+      </c>
+      <c r="D3">
+        <v>7248</v>
+      </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3">
+        <v>7164</v>
+      </c>
+      <c r="H3" s="21">
+        <v>0.109715242881072</v>
+      </c>
+      <c r="I3" s="22">
+        <f>G3*(1-H3)</f>
+        <v>6378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4">
+        <v>7017</v>
+      </c>
+      <c r="D4">
+        <v>6827</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4">
+        <v>6709</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0.10866000894321</v>
+      </c>
+      <c r="I4" s="22">
+        <f t="shared" ref="I4:I25" si="0">G4*(1-H4)</f>
+        <v>5980.0000000000036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>7135</v>
+      </c>
+      <c r="H5" s="21">
+        <v>0.124597056762438</v>
+      </c>
+      <c r="I5" s="22">
+        <f t="shared" si="0"/>
+        <v>6246.0000000000045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6">
+        <v>7447</v>
+      </c>
+      <c r="D6">
+        <v>7378</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6">
+        <v>7235</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0.103524533517622</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" si="0"/>
+        <v>6486.0000000000045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7">
+        <v>7472</v>
+      </c>
+      <c r="D7">
+        <v>7365</v>
+      </c>
+      <c r="E7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7">
+        <v>7154</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0.10483645512999699</v>
+      </c>
+      <c r="I7" s="22">
+        <f t="shared" si="0"/>
+        <v>6404.0000000000018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9">
+        <v>7310</v>
+      </c>
+      <c r="D9">
+        <v>7307</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9">
+        <v>7253</v>
+      </c>
+      <c r="H9" s="21">
+        <v>7.5692816765476303E-2</v>
+      </c>
+      <c r="I9" s="22">
+        <f t="shared" si="0"/>
+        <v>6704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10">
+        <v>6731</v>
+      </c>
+      <c r="D10">
+        <v>6689</v>
+      </c>
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10">
+        <v>6648</v>
+      </c>
+      <c r="H10" s="21">
+        <v>4.6179302045728003E-2</v>
+      </c>
+      <c r="I10" s="22">
+        <f t="shared" si="0"/>
+        <v>6341.0000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11">
+        <v>7203</v>
+      </c>
+      <c r="D11">
+        <v>7124</v>
+      </c>
+      <c r="E11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11">
+        <v>6995</v>
+      </c>
+      <c r="H11" s="21">
+        <v>6.97641172265904E-2</v>
+      </c>
+      <c r="I11" s="22">
+        <f t="shared" si="0"/>
+        <v>6507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12">
+        <v>7451</v>
+      </c>
+      <c r="D12">
+        <v>7425</v>
+      </c>
+      <c r="E12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12">
+        <v>7381</v>
+      </c>
+      <c r="H12" s="21">
+        <v>7.3025335320417203E-2</v>
+      </c>
+      <c r="I12" s="22">
+        <f t="shared" si="0"/>
+        <v>6842.0000000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13">
+        <v>7509</v>
+      </c>
+      <c r="D13">
+        <v>7421</v>
+      </c>
+      <c r="E13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13">
+        <v>7321</v>
+      </c>
+      <c r="H13" s="21">
+        <v>0.10695260210353701</v>
+      </c>
+      <c r="I13" s="22">
+        <f t="shared" si="0"/>
+        <v>6538.0000000000055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15">
+        <v>5826</v>
+      </c>
+      <c r="G15">
+        <v>5744</v>
+      </c>
+      <c r="H15" s="21">
+        <v>7.3467966573816101E-2</v>
+      </c>
+      <c r="I15" s="22">
+        <f t="shared" si="0"/>
+        <v>5322.0000000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16">
+        <v>5996</v>
+      </c>
+      <c r="G16">
+        <v>5715</v>
+      </c>
+      <c r="H16" s="21">
+        <v>9.2738407699037601E-2</v>
+      </c>
+      <c r="I16" s="22">
+        <f t="shared" si="0"/>
+        <v>5185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17">
+        <v>5818</v>
+      </c>
+      <c r="G17">
+        <v>5725</v>
+      </c>
+      <c r="H17" s="21">
+        <v>8.0349344978165899E-2</v>
+      </c>
+      <c r="I17" s="22">
+        <f t="shared" si="0"/>
+        <v>5265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18">
+        <v>5813</v>
+      </c>
+      <c r="G18">
+        <v>5721</v>
+      </c>
+      <c r="H18" s="21">
+        <v>8.2503058905785701E-2</v>
+      </c>
+      <c r="I18" s="22">
+        <f t="shared" si="0"/>
+        <v>5249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19">
+        <v>5671</v>
+      </c>
+      <c r="G19">
+        <v>5593</v>
+      </c>
+      <c r="H19" s="21">
+        <v>8.5642767745396003E-2</v>
+      </c>
+      <c r="I19" s="22">
+        <f t="shared" si="0"/>
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21">
+        <v>7742</v>
+      </c>
+      <c r="G21">
+        <v>7681</v>
+      </c>
+      <c r="H21" s="21">
+        <v>5.4550188777502902E-2</v>
+      </c>
+      <c r="I21" s="22">
+        <f t="shared" si="0"/>
+        <v>7262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22">
+        <v>7202</v>
+      </c>
+      <c r="G22">
+        <v>7145</v>
+      </c>
+      <c r="H22" s="21">
+        <v>5.8782365290412801E-2</v>
+      </c>
+      <c r="I22" s="22">
+        <f t="shared" si="0"/>
+        <v>6725.0000000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23">
+        <v>7430</v>
+      </c>
+      <c r="G23">
+        <v>7409</v>
+      </c>
+      <c r="H23" s="21">
+        <v>6.0601970576325999E-2</v>
+      </c>
+      <c r="I23" s="22">
+        <f t="shared" si="0"/>
+        <v>6960.0000000000009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24">
+        <v>7840</v>
+      </c>
+      <c r="G24">
+        <v>7736</v>
+      </c>
+      <c r="H24" s="21">
+        <v>6.7088934850051699E-2</v>
+      </c>
+      <c r="I24" s="22">
+        <f t="shared" si="0"/>
+        <v>7217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25">
+        <v>7525</v>
+      </c>
+      <c r="G25">
+        <v>7482</v>
+      </c>
+      <c r="H25" s="21">
+        <v>6.5356856455493106E-2</v>
+      </c>
+      <c r="I25" s="22">
+        <f t="shared" si="0"/>
+        <v>6993</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/simulation-result-2.xlsx
+++ b/simulation-result-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinghongmiao/Code/mvt-code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD6B2B7-3DD4-2D4A-AEDF-922AFBB2BA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED585835-4F14-3F45-903F-9ADFBE01C26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="940" windowWidth="26600" windowHeight="18360" activeTab="7" xr2:uid="{DC67C3A7-B510-8046-B152-656B0754A207}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="7" xr2:uid="{DC67C3A7-B510-8046-B152-656B0754A207}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="143">
   <si>
     <t>data</t>
   </si>
@@ -413,9 +413,6 @@
     <t>Random2</t>
   </si>
   <si>
-    <t>LNS 1000s</t>
-  </si>
-  <si>
     <t>Feasible Solution</t>
   </si>
   <si>
@@ -441,6 +438,42 @@
   </si>
   <si>
     <t>Gap</t>
+  </si>
+  <si>
+    <t>LNS 1000s (3000 work units)</t>
+  </si>
+  <si>
+    <t>LNS + 2000 work units</t>
+  </si>
+  <si>
+    <t>1639s</t>
+  </si>
+  <si>
+    <t>62268s</t>
+  </si>
+  <si>
+    <t>807s</t>
+  </si>
+  <si>
+    <t>1065s</t>
+  </si>
+  <si>
+    <t>793s</t>
+  </si>
+  <si>
+    <t>1469s</t>
+  </si>
+  <si>
+    <t>1529s</t>
+  </si>
+  <si>
+    <t>1540s</t>
+  </si>
+  <si>
+    <t>2599s</t>
+  </si>
+  <si>
+    <t>8279s</t>
   </si>
 </sst>
 </file>
@@ -684,7 +717,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -721,7 +754,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1707,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3D65DF-FE58-4943-912D-421C3ACD79B7}">
   <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView zoomScale="125" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20:S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1722,7 +1754,8 @@
     <col min="7" max="7" width="6" customWidth="1"/>
     <col min="8" max="8" width="5.83203125" customWidth="1"/>
     <col min="9" max="9" width="5.6640625" customWidth="1"/>
-    <col min="10" max="16" width="7" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="11" max="16" width="7" customWidth="1"/>
     <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="14.5" customWidth="1"/>
     <col min="21" max="22" width="13.33203125" customWidth="1"/>
@@ -2941,6 +2974,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
@@ -2950,12 +2989,6 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12508,7 +12541,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12531,17 +12564,17 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>124</v>
+      <c r="B1" t="s">
+        <v>123</v>
       </c>
       <c r="C1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s">
         <v>129</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>130</v>
-      </c>
-      <c r="E1" t="s">
-        <v>131</v>
       </c>
       <c r="G1" t="s">
         <v>83</v>
@@ -13526,59 +13559,65 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FCEF69-0377-6844-B158-DF2A4A19A8DA}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView zoomScale="156" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="B1" zoomScale="184" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E2" s="25"/>
-      <c r="G2" t="s">
+      <c r="F2" s="23"/>
+      <c r="H2" t="s">
         <v>97</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>53</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>93</v>
       </c>
@@ -13594,18 +13633,29 @@
       <c r="E3" t="s">
         <v>116</v>
       </c>
+      <c r="F3">
+        <f>(C3-H3)/H3</f>
+        <v>1.675041876046901E-2</v>
+      </c>
       <c r="G3">
+        <f>(D3-H3)/H3</f>
+        <v>1.1725293132328308E-2</v>
+      </c>
+      <c r="H3">
         <v>7164</v>
       </c>
-      <c r="H3" s="21">
+      <c r="I3" s="21">
         <v>0.109715242881072</v>
       </c>
-      <c r="I3" s="22">
-        <f>G3*(1-H3)</f>
+      <c r="J3" s="22">
+        <f>H3*(1-I3)</f>
         <v>6378</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>7151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>76</v>
       </c>
@@ -13618,18 +13668,26 @@
       <c r="E4" t="s">
         <v>112</v>
       </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F25" si="0">(C4-H4)/H4</f>
+        <v>4.5908481144730957E-2</v>
+      </c>
       <c r="G4">
+        <f>(D4-H4)/H4</f>
+        <v>1.7588314204799522E-2</v>
+      </c>
+      <c r="H4">
         <v>6709</v>
       </c>
-      <c r="H4" s="21">
+      <c r="I4" s="21">
         <v>0.10866000894321</v>
       </c>
-      <c r="I4" s="22">
-        <f t="shared" ref="I4:I25" si="0">G4*(1-H4)</f>
+      <c r="J4" s="22">
+        <f t="shared" ref="J4:J25" si="1">H4*(1-I4)</f>
         <v>5980.0000000000036</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>77</v>
       </c>
@@ -13642,18 +13700,26 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="G5">
+      <c r="F5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G5" t="e">
+        <f>(D5-H5)/H5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H5">
         <v>7135</v>
       </c>
-      <c r="H5" s="21">
+      <c r="I5" s="21">
         <v>0.124597056762438</v>
       </c>
-      <c r="I5" s="22">
-        <f t="shared" si="0"/>
+      <c r="J5" s="22">
+        <f t="shared" si="1"/>
         <v>6246.0000000000045</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>120</v>
       </c>
@@ -13666,18 +13732,26 @@
       <c r="E6" t="s">
         <v>113</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>2.9302004146510022E-2</v>
+      </c>
       <c r="G6">
+        <f>(D6-H6)/H6</f>
+        <v>1.9765031098825155E-2</v>
+      </c>
+      <c r="H6">
         <v>7235</v>
       </c>
-      <c r="H6" s="21">
+      <c r="I6" s="21">
         <v>0.103524533517622</v>
       </c>
-      <c r="I6" s="22">
-        <f t="shared" si="0"/>
+      <c r="J6" s="22">
+        <f t="shared" si="1"/>
         <v>6486.0000000000045</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>121</v>
       </c>
@@ -13690,21 +13764,29 @@
       <c r="E7" t="s">
         <v>114</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>4.4450656975118817E-2</v>
+      </c>
       <c r="G7">
+        <f>(D7-H7)/H7</f>
+        <v>2.9493989376572546E-2</v>
+      </c>
+      <c r="H7">
         <v>7154</v>
       </c>
-      <c r="H7" s="21">
+      <c r="I7" s="21">
         <v>0.10483645512999699</v>
       </c>
-      <c r="I7" s="22">
-        <f t="shared" si="0"/>
+      <c r="J7" s="22">
+        <f t="shared" si="1"/>
         <v>6404.0000000000018</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -13720,18 +13802,26 @@
       <c r="E9" t="s">
         <v>115</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>7.8588170412243214E-3</v>
+      </c>
       <c r="G9">
+        <f>(D9-H9)/H9</f>
+        <v>7.4451950916861985E-3</v>
+      </c>
+      <c r="H9">
         <v>7253</v>
       </c>
-      <c r="H9" s="21">
+      <c r="I9" s="21">
         <v>7.5692816765476303E-2</v>
       </c>
-      <c r="I9" s="22">
-        <f t="shared" si="0"/>
+      <c r="J9" s="22">
+        <f t="shared" si="1"/>
         <v>6704</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>76</v>
       </c>
@@ -13744,18 +13834,26 @@
       <c r="E10" t="s">
         <v>117</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1.2484957882069795E-2</v>
+      </c>
       <c r="G10">
+        <f>(D10-H10)/H10</f>
+        <v>6.1672683513838752E-3</v>
+      </c>
+      <c r="H10">
         <v>6648</v>
       </c>
-      <c r="H10" s="21">
+      <c r="I10" s="21">
         <v>4.6179302045728003E-2</v>
       </c>
-      <c r="I10" s="22">
-        <f t="shared" si="0"/>
+      <c r="J10" s="22">
+        <f t="shared" si="1"/>
         <v>6341.0000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>77</v>
       </c>
@@ -13768,18 +13866,26 @@
       <c r="E11" t="s">
         <v>118</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>2.9735525375268048E-2</v>
+      </c>
       <c r="G11">
+        <f>(D11-H11)/H11</f>
+        <v>1.8441744102930663E-2</v>
+      </c>
+      <c r="H11">
         <v>6995</v>
       </c>
-      <c r="H11" s="21">
+      <c r="I11" s="21">
         <v>6.97641172265904E-2</v>
       </c>
-      <c r="I11" s="22">
-        <f t="shared" si="0"/>
+      <c r="J11" s="22">
+        <f t="shared" si="1"/>
         <v>6507</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>120</v>
       </c>
@@ -13790,20 +13896,28 @@
         <v>7425</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>9.4838097818723752E-3</v>
       </c>
       <c r="G12">
+        <f>(D12-H12)/H12</f>
+        <v>5.9612518628912071E-3</v>
+      </c>
+      <c r="H12">
         <v>7381</v>
       </c>
-      <c r="H12" s="21">
+      <c r="I12" s="21">
         <v>7.3025335320417203E-2</v>
       </c>
-      <c r="I12" s="22">
-        <f t="shared" si="0"/>
+      <c r="J12" s="22">
+        <f t="shared" si="1"/>
         <v>6842.0000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>121</v>
       </c>
@@ -13814,23 +13928,31 @@
         <v>7421</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>2.5679551973774074E-2</v>
       </c>
       <c r="G13">
+        <f>(D13-H13)/H13</f>
+        <v>1.3659336156262806E-2</v>
+      </c>
+      <c r="H13">
         <v>7321</v>
       </c>
-      <c r="H13" s="21">
+      <c r="I13" s="21">
         <v>0.10695260210353701</v>
       </c>
-      <c r="I13" s="22">
-        <f t="shared" si="0"/>
+      <c r="J13" s="22">
+        <f t="shared" si="1"/>
         <v>6538.0000000000055</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -13840,93 +13962,163 @@
       <c r="C15">
         <v>5826</v>
       </c>
+      <c r="D15">
+        <v>5768</v>
+      </c>
+      <c r="E15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1.4275766016713091E-2</v>
+      </c>
       <c r="G15">
+        <f>(D15-H15)/H15</f>
+        <v>4.178272980501393E-3</v>
+      </c>
+      <c r="H15">
         <v>5744</v>
       </c>
-      <c r="H15" s="21">
+      <c r="I15" s="21">
         <v>7.3467966573816101E-2</v>
       </c>
-      <c r="I15" s="22">
-        <f t="shared" si="0"/>
+      <c r="J15" s="22">
+        <f t="shared" si="1"/>
         <v>5322.0000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>76</v>
       </c>
       <c r="C16">
         <v>5996</v>
       </c>
+      <c r="D16">
+        <v>5733</v>
+      </c>
+      <c r="E16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>4.9168853893263344E-2</v>
+      </c>
       <c r="G16">
+        <f>(D16-H16)/H16</f>
+        <v>3.1496062992125984E-3</v>
+      </c>
+      <c r="H16">
         <v>5715</v>
       </c>
-      <c r="H16" s="21">
+      <c r="I16" s="21">
         <v>9.2738407699037601E-2</v>
       </c>
-      <c r="I16" s="22">
-        <f t="shared" si="0"/>
+      <c r="J16" s="22">
+        <f t="shared" si="1"/>
         <v>5185</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>77</v>
       </c>
       <c r="C17">
         <v>5818</v>
       </c>
+      <c r="D17">
+        <v>5792</v>
+      </c>
+      <c r="E17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1.6244541484716157E-2</v>
+      </c>
       <c r="G17">
+        <f>(D17-H17)/H17</f>
+        <v>1.1703056768558952E-2</v>
+      </c>
+      <c r="H17">
         <v>5725</v>
       </c>
-      <c r="H17" s="21">
+      <c r="I17" s="21">
         <v>8.0349344978165899E-2</v>
       </c>
-      <c r="I17" s="22">
-        <f t="shared" si="0"/>
+      <c r="J17" s="22">
+        <f t="shared" si="1"/>
         <v>5265</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>120</v>
       </c>
       <c r="C18">
         <v>5813</v>
       </c>
+      <c r="D18">
+        <v>5763</v>
+      </c>
+      <c r="E18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1.6081104701975178E-2</v>
+      </c>
       <c r="G18">
+        <f>(D18-H18)/H18</f>
+        <v>7.341373885684321E-3</v>
+      </c>
+      <c r="H18">
         <v>5721</v>
       </c>
-      <c r="H18" s="21">
+      <c r="I18" s="21">
         <v>8.2503058905785701E-2</v>
       </c>
-      <c r="I18" s="22">
-        <f t="shared" si="0"/>
+      <c r="J18" s="22">
+        <f t="shared" si="1"/>
         <v>5249</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>121</v>
       </c>
       <c r="C19">
         <v>5671</v>
       </c>
+      <c r="D19">
+        <v>5609</v>
+      </c>
+      <c r="E19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1.3946003933488289E-2</v>
+      </c>
       <c r="G19">
+        <f>(D19-H19)/H19</f>
+        <v>2.8607187555873413E-3</v>
+      </c>
+      <c r="H19">
         <v>5593</v>
       </c>
-      <c r="H19" s="21">
+      <c r="I19" s="21">
         <v>8.5642767745396003E-2</v>
       </c>
-      <c r="I19" s="22">
-        <f t="shared" si="0"/>
+      <c r="J19" s="22">
+        <f t="shared" si="1"/>
         <v>5114</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I20" s="21"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -13936,86 +14128,156 @@
       <c r="C21">
         <v>7742</v>
       </c>
+      <c r="D21">
+        <v>7711</v>
+      </c>
+      <c r="E21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>7.9416742611639109E-3</v>
+      </c>
       <c r="G21">
+        <f>(D21-H21)/H21</f>
+        <v>3.9057414399166776E-3</v>
+      </c>
+      <c r="H21">
         <v>7681</v>
       </c>
-      <c r="H21" s="21">
+      <c r="I21" s="21">
         <v>5.4550188777502902E-2</v>
       </c>
-      <c r="I21" s="22">
-        <f t="shared" si="0"/>
+      <c r="J21" s="22">
+        <f t="shared" si="1"/>
         <v>7262</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>76</v>
       </c>
       <c r="C22">
         <v>7202</v>
       </c>
+      <c r="D22">
+        <v>7156</v>
+      </c>
+      <c r="E22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>7.977606717984604E-3</v>
+      </c>
       <c r="G22">
+        <f>(D22-H22)/H22</f>
+        <v>1.5395381385584325E-3</v>
+      </c>
+      <c r="H22">
         <v>7145</v>
       </c>
-      <c r="H22" s="21">
+      <c r="I22" s="21">
         <v>5.8782365290412801E-2</v>
       </c>
-      <c r="I22" s="22">
-        <f t="shared" si="0"/>
+      <c r="J22" s="22">
+        <f t="shared" si="1"/>
         <v>6725.0000000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>77</v>
       </c>
       <c r="C23">
         <v>7430</v>
       </c>
+      <c r="D23">
+        <v>7428</v>
+      </c>
+      <c r="E23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>2.8343906060197058E-3</v>
+      </c>
       <c r="G23">
+        <f>(D23-H23)/H23</f>
+        <v>2.5644486435416384E-3</v>
+      </c>
+      <c r="H23">
         <v>7409</v>
       </c>
-      <c r="H23" s="21">
+      <c r="I23" s="21">
         <v>6.0601970576325999E-2</v>
       </c>
-      <c r="I23" s="22">
-        <f t="shared" si="0"/>
+      <c r="J23" s="22">
+        <f t="shared" si="1"/>
         <v>6960.0000000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>120</v>
       </c>
       <c r="C24">
         <v>7840</v>
       </c>
+      <c r="D24">
+        <v>7763</v>
+      </c>
+      <c r="E24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1.344364012409514E-2</v>
+      </c>
       <c r="G24">
+        <f>(D24-H24)/H24</f>
+        <v>3.4901758014477765E-3</v>
+      </c>
+      <c r="H24">
         <v>7736</v>
       </c>
-      <c r="H24" s="21">
+      <c r="I24" s="21">
         <v>6.7088934850051699E-2</v>
       </c>
-      <c r="I24" s="22">
-        <f t="shared" si="0"/>
+      <c r="J24" s="22">
+        <f t="shared" si="1"/>
         <v>7217</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>121</v>
       </c>
       <c r="C25">
         <v>7525</v>
       </c>
+      <c r="D25">
+        <v>7486</v>
+      </c>
+      <c r="E25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>5.7471264367816091E-3</v>
+      </c>
       <c r="G25">
+        <f>(D25-H25)/H25</f>
+        <v>5.3461641272387062E-4</v>
+      </c>
+      <c r="H25">
         <v>7482</v>
       </c>
-      <c r="H25" s="21">
+      <c r="I25" s="21">
         <v>6.5356856455493106E-2</v>
       </c>
-      <c r="I25" s="22">
-        <f t="shared" si="0"/>
+      <c r="J25" s="22">
+        <f t="shared" si="1"/>
         <v>6993</v>
       </c>
     </row>
